--- a/MSN_Delays.xlsx
+++ b/MSN_Delays.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua.Shutey\Desktop\MSN_Econ\Haul_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EFDFE8-14DB-4B3D-88FF-7D85924EDA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E265DF-9985-4199-A324-BF7C16FA0BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43780" yWindow="1780" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delays" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>year</t>
   </si>
@@ -165,6 +179,45 @@
   <si>
     <t>Sum of WAITING FOR SHOVELS</t>
   </si>
+  <si>
+    <t>AvgTimeLoading</t>
+  </si>
+  <si>
+    <t>Loads</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>L530</t>
+  </si>
+  <si>
+    <t>L532</t>
+  </si>
+  <si>
+    <t>L548</t>
+  </si>
+  <si>
+    <t>S515</t>
+  </si>
+  <si>
+    <t>S516</t>
+  </si>
+  <si>
+    <t>S517</t>
+  </si>
+  <si>
+    <t>S518</t>
+  </si>
+  <si>
+    <t>Load_wt</t>
+  </si>
+  <si>
+    <t>Sum of Loads</t>
+  </si>
+  <si>
+    <t>Sum of Load_wt</t>
+  </si>
 </sst>
 </file>
 
@@ -172,9 +225,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +250,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -234,18 +312,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -287,6 +377,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -344,6 +437,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -403,7 +499,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -443,7 +539,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -458,6 +553,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -557,7 +655,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -572,6 +669,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -629,6 +729,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -686,6 +789,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -743,6 +849,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -800,6 +909,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -857,6 +969,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -914,6 +1029,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -971,6 +1089,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1028,6 +1149,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1085,6 +1209,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1142,6 +1269,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1199,6 +1329,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1256,6 +1389,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1313,6 +1449,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1370,6 +1509,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1427,6 +1569,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1484,6 +1629,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1543,7 +1691,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1583,7 +1731,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1598,6 +1745,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1655,6 +1805,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1712,6 +1865,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1769,6 +1925,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1826,6 +1985,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1883,6 +2045,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1940,6 +2105,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1997,6 +2165,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2054,6 +2225,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2111,6 +2285,9 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2126,6 +2303,9 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2183,6 +2363,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2240,6 +2423,9 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2297,6 +2483,9 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2354,6 +2543,9 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2411,6 +2603,9 @@
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2468,6 +2663,9 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2525,6 +2723,9 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2582,6 +2783,9 @@
       <c:pivotFmt>
         <c:idx val="41"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2639,6 +2843,9 @@
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2696,6 +2903,9 @@
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2753,6 +2963,9 @@
       <c:pivotFmt>
         <c:idx val="44"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2810,6 +3023,9 @@
       <c:pivotFmt>
         <c:idx val="45"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2867,6 +3083,9 @@
       <c:pivotFmt>
         <c:idx val="46"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2924,6 +3143,9 @@
       <c:pivotFmt>
         <c:idx val="47"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2981,6 +3203,9 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3038,6 +3263,9 @@
       <c:pivotFmt>
         <c:idx val="49"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3095,6 +3323,9 @@
       <c:pivotFmt>
         <c:idx val="50"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3152,6 +3383,9 @@
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3211,7 +3445,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3251,7 +3485,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3268,7 +3501,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3308,7 +3541,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3325,7 +3557,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3365,7 +3597,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3382,7 +3613,9 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3422,7 +3655,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3439,7 +3671,9 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3479,7 +3713,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3496,7 +3729,9 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3536,7 +3771,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3553,7 +3787,9 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3593,7 +3829,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3610,7 +3845,9 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3650,7 +3887,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3667,7 +3903,9 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3707,7 +3945,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4770,7 +5007,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5598,97 +5834,97 @@
         <n v="2022"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="BRIDGE/BOULDERS" numFmtId="169">
+    <cacheField name="BRIDGE/BOULDERS" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.5264843021246033E-4"/>
     </cacheField>
-    <cacheField name="CR 1ST CLEANUP" numFmtId="169">
+    <cacheField name="CR 1ST CLEANUP" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3.1245463573457201E-4"/>
     </cacheField>
-    <cacheField name="DELAY FOR BLAST" numFmtId="169">
+    <cacheField name="DELAY FOR BLAST" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.7167321968165951E-3" maxValue="4.3255938671358102E-2"/>
     </cacheField>
-    <cacheField name="DRILL BIT/STEEL CHANGE" numFmtId="169">
+    <cacheField name="DRILL BIT/STEEL CHANGE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.9066367793756761E-5"/>
     </cacheField>
-    <cacheField name="FIELD SERVICE" numFmtId="169">
+    <cacheField name="FIELD SERVICE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9613469499586692E-2" maxValue="0.159183762086686"/>
     </cacheField>
-    <cacheField name="FUEL/LUBE" numFmtId="169">
+    <cacheField name="FUEL/LUBE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.0930378412747647E-4" maxValue="2.7581102175681322E-3"/>
     </cacheField>
-    <cacheField name="GENERAL OPERATIONS" numFmtId="169">
+    <cacheField name="GENERAL OPERATIONS" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.30570095445403E-2" maxValue="5.3878762396601991E-2"/>
     </cacheField>
-    <cacheField name="HOUSEKEEPING" numFmtId="169">
+    <cacheField name="HOUSEKEEPING" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2581931578382202E-4" maxValue="5.8198368613883219E-3"/>
     </cacheField>
-    <cacheField name="LONG MUCK WATERING" numFmtId="169">
+    <cacheField name="LONG MUCK WATERING" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.4981327244027507E-4"/>
     </cacheField>
-    <cacheField name="LONG SHOVEL CLEANUP" numFmtId="169">
+    <cacheField name="LONG SHOVEL CLEANUP" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1909750798465219E-3" maxValue="1.8031180658332431E-2"/>
     </cacheField>
-    <cacheField name="LUBE CENTER" numFmtId="169">
+    <cacheField name="LUBE CENTER" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.51800930640616127" maxValue="0.73649598438570496"/>
     </cacheField>
-    <cacheField name="LUNCH" numFmtId="169">
+    <cacheField name="LUNCH" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.073179571791838" maxValue="1.222664594392691"/>
     </cacheField>
-    <cacheField name="METAL DETECT" numFmtId="169">
+    <cacheField name="METAL DETECT" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.7791922185277101E-4"/>
     </cacheField>
-    <cacheField name="MSHA INSPECTION" numFmtId="169">
+    <cacheField name="MSHA INSPECTION" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4704681768949409E-4" maxValue="5.1178609664822216E-3"/>
     </cacheField>
-    <cacheField name="MUCK WATERING" numFmtId="169">
+    <cacheField name="MUCK WATERING" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7566553650081438E-4" maxValue="2.3267835438369171E-3"/>
     </cacheField>
-    <cacheField name="NEED SHIFTER - CAN'T OPERATE" numFmtId="169">
+    <cacheField name="NEED SHIFTER - CAN'T OPERATE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.070272799782534E-3" maxValue="1.391017276157212E-2"/>
     </cacheField>
-    <cacheField name="OPERATOR BREAK" numFmtId="169">
+    <cacheField name="OPERATOR BREAK" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2148215886780879" maxValue="0.4262920385646235"/>
     </cacheField>
-    <cacheField name="OUT OF WATER" numFmtId="169">
+    <cacheField name="OUT OF WATER" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.1903773744751589E-6"/>
     </cacheField>
-    <cacheField name="POWER CABLE WORK" numFmtId="169">
+    <cacheField name="POWER CABLE WORK" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3.9250379750279439E-5"/>
     </cacheField>
-    <cacheField name="PRE-OP" numFmtId="169">
+    <cacheField name="PRE-OP" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.66386811020424086"/>
     </cacheField>
-    <cacheField name="REDBURN TIRE CHECK" numFmtId="169">
+    <cacheField name="REDBURN TIRE CHECK" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6295520752106531E-2" maxValue="3.4391415665919023E-2"/>
     </cacheField>
-    <cacheField name="ROAD BLOCK" numFmtId="169">
+    <cacheField name="ROAD BLOCK" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.0430862843280087E-3" maxValue="2.1749473022660021E-2"/>
     </cacheField>
-    <cacheField name="SCALE STUDY" numFmtId="169">
+    <cacheField name="SCALE STUDY" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="7.7130382082252994E-4"/>
     </cacheField>
-    <cacheField name="SEATBELT ALARM" numFmtId="169">
+    <cacheField name="SEATBELT ALARM" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.5761388421180724E-4" maxValue="6.2425579860656052E-3"/>
     </cacheField>
-    <cacheField name="SHIFT CHANGE" numFmtId="169">
+    <cacheField name="SHIFT CHANGE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.645208428735078E-3" maxValue="0.33949637263071702"/>
     </cacheField>
-    <cacheField name="SHORT SHOVEL CLEANUP" numFmtId="169">
+    <cacheField name="SHORT SHOVEL CLEANUP" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.0004482970115861E-3" maxValue="2.5986372770308609E-2"/>
     </cacheField>
-    <cacheField name="SHOVEL MOVE" numFmtId="169">
+    <cacheField name="SHOVEL MOVE" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5395457699422499E-3" maxValue="1.386184307973134E-2"/>
     </cacheField>
-    <cacheField name="STEERING/BRAKE TEST" numFmtId="169">
+    <cacheField name="STEERING/BRAKE TEST" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.180052706952521E-2" maxValue="9.5446014655262729E-2"/>
     </cacheField>
-    <cacheField name="TRAMMING TO LOCATION" numFmtId="169">
+    <cacheField name="TRAMMING TO LOCATION" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4.1411566125132668E-7"/>
     </cacheField>
-    <cacheField name="WAITING FOR CRUSHER" numFmtId="169">
+    <cacheField name="WAITING FOR CRUSHER" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.6096000078542288E-2" maxValue="9.180203397473348E-2"/>
     </cacheField>
-    <cacheField name="WAITING FOR SHOVELS" numFmtId="169">
+    <cacheField name="WAITING FOR SHOVELS" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4657182163848693E-2" maxValue="0.13021874523352811" count="6">
         <n v="3.4657182163848693E-2"/>
         <n v="0.1298297140898847"/>
@@ -5698,7 +5934,7 @@
         <n v="0.1109199101691862"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="WEATHER" numFmtId="169">
+    <cacheField name="WEATHER" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.8908030487238211E-6" maxValue="4.6495983722521061E-2" count="6">
         <n v="5.7466308362931191E-4"/>
         <n v="1.51112580983606E-2"/>
@@ -5707,6 +5943,41 @@
         <n v="4.6495983722521061E-2"/>
         <n v="3.8908030487238211E-6"/>
       </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Shutey" refreshedDate="44697.55230520833" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="21" xr:uid="{2E40135A-75FF-4078-BD56-05B1042EB59C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D22" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Shovel" numFmtId="0">
+      <sharedItems count="7">
+        <s v="L530"/>
+        <s v="L532"/>
+        <s v="L548"/>
+        <s v="S515"/>
+        <s v="S516"/>
+        <s v="S517"/>
+        <s v="S518"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="AvgTimeLoading" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0996350000000001" maxValue="6.8226599999999999"/>
+    </cacheField>
+    <cacheField name="Loads" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1100" maxValue="40340"/>
+    </cacheField>
+    <cacheField name="Load_wt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7504.7664999999997" maxValue="93157.342382000003"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5932,8 +6203,139 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="21">
+  <r>
+    <x v="0"/>
+    <n v="4.7134260000000001"/>
+    <n v="19052"/>
+    <n v="89800.192152000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.5869980000000004"/>
+    <n v="20309"/>
+    <n v="93157.342382000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6.8226599999999999"/>
+    <n v="3251"/>
+    <n v="22180.467659999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.4856769999999999"/>
+    <n v="19539"/>
+    <n v="87645.642903"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.1259220000000001"/>
+    <n v="20368"/>
+    <n v="84036.779296000008"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3.132177"/>
+    <n v="25381"/>
+    <n v="79497.784436999995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2.158588"/>
+    <n v="34738"/>
+    <n v="74985.029943999994"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4.1626620000000001"/>
+    <n v="21894"/>
+    <n v="91137.321828"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.4430430000000003"/>
+    <n v="18303"/>
+    <n v="81321.016029000006"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.7666890000000004"/>
+    <n v="4513"/>
+    <n v="26025.067457000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.5164530000000003"/>
+    <n v="16733"/>
+    <n v="75573.808048999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3.84694"/>
+    <n v="22863"/>
+    <n v="87952.589219999994"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2.734642"/>
+    <n v="28296"/>
+    <n v="77379.430032000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2.260723"/>
+    <n v="40340"/>
+    <n v="91197.565820000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4.8240809999999996"/>
+    <n v="6015"/>
+    <n v="29016.847214999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.658893"/>
+    <n v="8889"/>
+    <n v="41412.899876999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6.8225150000000001"/>
+    <n v="1100"/>
+    <n v="7504.7664999999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3.781542"/>
+    <n v="6447"/>
+    <n v="24379.601274000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4.1406450000000001"/>
+    <n v="6426"/>
+    <n v="26607.784770000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2.6526610000000002"/>
+    <n v="12313"/>
+    <n v="32662.214893"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2.0996350000000001"/>
+    <n v="10917"/>
+    <n v="22921.715295000002"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48E97D97-5393-4681-A394-BB322B804A74}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48E97D97-5393-4681-A394-BB322B804A74}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B11:N18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField axis="axisRow" showAll="0">
@@ -5947,37 +6349,37 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="7">
         <item x="0"/>
         <item x="5"/>
@@ -5988,7 +6390,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="169" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="7">
         <item x="5"/>
         <item x="0"/>
@@ -6419,6 +6821,82 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F33A48D7-054F-47DF-8A16-1FD812EC6A4B}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H4:J12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Loads" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Load_wt" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6742,42 +7220,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+      <selection pane="topRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="26" max="34" width="28" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6878,7 +7357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
@@ -6979,7 +7458,7 @@
         <v>5.7466308362931191E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
@@ -7080,7 +7559,7 @@
         <v>1.51112580983606E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2019</v>
       </c>
@@ -7181,7 +7660,7 @@
         <v>2.1501128325725719E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -7282,7 +7761,7 @@
         <v>6.553803426852061E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2021</v>
       </c>
@@ -7383,7 +7862,7 @@
         <v>4.6495983722521061E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2022</v>
       </c>
@@ -7484,7 +7963,7 @@
         <v>3.8908030487238211E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
@@ -7525,7 +8004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2017</v>
       </c>
@@ -7565,8 +8044,12 @@
       <c r="N12" s="6">
         <v>0.56823246669693439</v>
       </c>
+      <c r="O12">
+        <f>+SUM(C12:N12)</f>
+        <v>2.1726278993804558</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>2018</v>
       </c>
@@ -7606,8 +8089,12 @@
       <c r="N13" s="6">
         <v>0.51800930640616127</v>
       </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O17" si="0">+SUM(C13:N13)</f>
+        <v>2.5206170783138138</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>2019</v>
       </c>
@@ -7647,8 +8134,12 @@
       <c r="N14" s="6">
         <v>0.58998646373413066</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2.550146659682508</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>2020</v>
       </c>
@@ -7688,8 +8179,12 @@
       <c r="N15" s="6">
         <v>0.68246897813392204</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2.7757651209760761</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>2021</v>
       </c>
@@ -7729,8 +8224,12 @@
       <c r="N16" s="6">
         <v>0.69737270633997372</v>
       </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>3.0846729579420793</v>
+      </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>2022</v>
       </c>
@@ -7770,8 +8269,12 @@
       <c r="N17" s="6">
         <v>0.73649598438570496</v>
       </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>3.4039685879779853</v>
+      </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
@@ -7817,4 +8320,455 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F124174-6382-4ADA-AADE-2F083B0F147E}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="9">
+        <v>4.7134260000000001</v>
+      </c>
+      <c r="C2" s="9">
+        <v>19052</v>
+      </c>
+      <c r="D2">
+        <f>+B2*C2</f>
+        <v>89800.192152000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4.5869980000000004</v>
+      </c>
+      <c r="C3" s="10">
+        <v>20309</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D22" si="0">+B3*C3</f>
+        <v>93157.342382000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6.8226599999999999</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3251</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>22180.467659999998</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4.4856769999999999</v>
+      </c>
+      <c r="C5" s="10">
+        <v>19539</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>87645.642903</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="6">
+        <v>46961</v>
+      </c>
+      <c r="J5" s="6">
+        <v>209954.36119499998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4.1259220000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>20368</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>84036.779296000008</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="6">
+        <v>47501</v>
+      </c>
+      <c r="J6" s="6">
+        <v>215891.25828799998</v>
+      </c>
+      <c r="L6">
+        <f>+(J6+J5)/(I6+I5)</f>
+        <v>4.5081156389130017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.132177</v>
+      </c>
+      <c r="C7" s="10">
+        <v>25381</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>79497.784436999995</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8864</v>
+      </c>
+      <c r="J7" s="6">
+        <v>55710.301616999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L6:L11" si="1">+J7/I7</f>
+        <v>6.2850069513763538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.158588</v>
+      </c>
+      <c r="C8" s="9">
+        <v>34738</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>74985.029943999994</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="6">
+        <v>42719</v>
+      </c>
+      <c r="J8" s="6">
+        <v>187599.052226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.1626620000000001</v>
+      </c>
+      <c r="C9" s="10">
+        <v>21894</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>91137.321828</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6">
+        <v>49657</v>
+      </c>
+      <c r="J9" s="6">
+        <v>198597.15328599999</v>
+      </c>
+      <c r="L9">
+        <f>+(J9+J8)/(I9+I8)</f>
+        <v>4.1806985094829825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4.4430430000000003</v>
+      </c>
+      <c r="C10" s="9">
+        <v>18303</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>81321.016029000006</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="6">
+        <v>65990</v>
+      </c>
+      <c r="J10" s="6">
+        <v>189539.429362</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2.8722447243824822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5.7666890000000004</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4513</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>26025.067457000001</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="6">
+        <v>85995</v>
+      </c>
+      <c r="J11" s="6">
+        <v>189104.311059</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2.1990151876155593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4.5164530000000003</v>
+      </c>
+      <c r="C12" s="9">
+        <v>16733</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>75573.808048999999</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6">
+        <v>347687</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1246395.8670329999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3.84694</v>
+      </c>
+      <c r="C13" s="10">
+        <v>22863</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>87952.589219999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2.734642</v>
+      </c>
+      <c r="C14" s="9">
+        <v>28296</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>77379.430032000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2.260723</v>
+      </c>
+      <c r="C15" s="10">
+        <v>40340</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>91197.565820000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9">
+        <v>4.8240809999999996</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6015</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>29016.847214999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4.658893</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8889</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>41412.899876999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6.8225150000000001</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7504.7664999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10">
+        <v>3.781542</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6447</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>24379.601274000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9">
+        <v>4.1406450000000001</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6426</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>26607.784770000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2.6526610000000002</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12313</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>32662.214893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2.0996350000000001</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10917</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>22921.715295000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>